--- a/Release/Release to Production/APDU10150M0/TW2_Individual_Binary_Release_APDU10150MO.xlsx
+++ b/Release/Release to Production/APDU10150M0/TW2_Individual_Binary_Release_APDU10150MO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nventco-my.sharepoint.com/personal/e2011569_nventco_com/Documents/Documents/SKU Creation/TW2/APDU10150MO/INDIVIDUAL-TW2-SKU-REPO/Release/Release to Production/APDU10150M0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{73C12AE7-AAFD-4676-9370-6493FB667A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EFE61B7-9DF9-4539-B0C1-B2ED478EB42D}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{73C12AE7-AAFD-4676-9370-6493FB667A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0023A02A-91A7-4E58-BAC1-71B9CE75DD1C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ADBB7C90-BFDE-411F-AAB6-7AF7A6FDEA9D}"/>
   </bookViews>
@@ -163,7 +163,7 @@
     <t>Secondary value:   A | V</t>
   </si>
   <si>
-    <t>68fa950f0b7037d1d7584a844e49be1b</t>
+    <t>dd192f56a8b5fac304d17ff7849e3134</t>
   </si>
 </sst>
 </file>
@@ -521,14 +521,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -572,9 +604,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -587,35 +616,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,7 +982,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,41 +993,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="str">
+      <c r="E3" s="30"/>
+      <c r="F3" s="31" t="str">
         <f>"FBR-"&amp;C6&amp;"-"&amp;C11&amp;"-V1"</f>
         <v>FBR-FW00040--V1</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1039,13 +1039,13 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -1054,14 +1054,14 @@
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -1070,14 +1070,14 @@
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -1086,14 +1086,14 @@
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -1102,14 +1102,14 @@
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -1118,15 +1118,15 @@
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="8" t="s">
         <v>35</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1152,7 +1152,7 @@
       <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1166,7 +1166,7 @@
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="38">
         <v>45608</v>
       </c>
       <c r="D12" s="10"/>
@@ -1182,7 +1182,7 @@
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="10"/>
@@ -1198,7 +1198,7 @@
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="10"/>
@@ -1214,7 +1214,7 @@
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="10"/>
@@ -1230,7 +1230,7 @@
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="10"/>
@@ -1246,7 +1246,7 @@
       <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1260,14 +1260,14 @@
       <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -1276,69 +1276,59 @@
       <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
+      <c r="A20" s="18">
         <v>16</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="D3:E3"/>
@@ -1354,6 +1344,16 @@
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
